--- a/Documentacion/Distribución de Trabajo (TI- ZAA).xlsx
+++ b/Documentacion/Distribución de Trabajo (TI- ZAA).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-16\Desktop\Proyecto\Proyecto_ZAA\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F675431F-679B-4370-BF39-EBB7AED28683}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC181A05-5CAB-46F1-AF37-EFAF4D063452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
   <si>
     <t>Num.</t>
   </si>
@@ -1980,15 +1980,81 @@
 </t>
   </si>
   <si>
-    <t>1.  Garantizar la seguridad de los datos sensibles, como información financiera o detalles de inventario
-2. Manejar cargas de trabajo variables y asegurar tiempos de respuesta rápidos, incluso durante períodos de alta demanda
-3. .El sistema debe estar disponible y operativo durante la mayor parte del tiempo posible, con un tiempo de inactividad mínimo planificado para mantenimiento y actualizaciones.
-4.  Debe poder adaptarse y escalar fácilmente para manejar un aumento en el volumen de datos
-5.  El sistema debe ser fácil de usar e intuitivo para los usuarios, con una interfaz de usuario clara y bien diseñada, minimizando la necesidad de formación adicional.
-6. El sistema debe ser compatible con una variedad de dispositivos y plataformas
-7. El sistema debe ser capaz de integrarse con otros sistemas externos
-8. Cumplir con las regulaciones y normativas pertinentes, como leyes de protección de datos y estándares de seguridad de la información.
-9. Debe ser capaz de manejar de forma adecuada y recuperarse de posibles fallos del sistema, minimizando el impacto en la operación general del gimnasio.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROPIETARIO (OWNER)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Equipos
+2. Equipos_Existencias
+3. Mantenimiento
+4. Consumibles
+5. Recursos_Prestables
+6. Adeudos_Miembros
+6.-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adeudo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7.-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bitacora      
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LECTOR (READER)
+1. Areas
+2. Productos
+3. Usuarios
+EDITOR  
+Ninguna</t>
+    </r>
+  </si>
+  <si>
+    <t>Comentarios</t>
   </si>
   <si>
     <t>1. Permitir llevar un registro actualizado del inventario de equipos y materiales disponibles
@@ -1998,7 +2064,14 @@
 5. Permitir programar y registrar tareas de mantenimiento preventivo para los equipos del gimnasio
 6. Rastrear la frecuencia de uso de equipos específicos y generar informes sobre su utilización 
 7. El sistema debería permitir a los usuarios realizar reservas anticipadas y coordinar la disponibilidad de los equipos
-8. Generar alertas y recordatorios automáticos para notificar a los administradores sobre niveles bajos de inventario..</t>
+8. Generar alertas y recordatorios automáticos para notificar a los administradores sobre niveles bajos de inventario.
+9. Generación de informes de inventario: Debería ser capaz de generar informes detallados sobre el estado actual del inventario, incluyendo niveles de existencias, valoración financiera, y análisis de tendencias.
+10.  Integración con sistemas de compra: Debería integrarse con sistemas de compras para agilizar el proceso de adquisición de nuevos recursos materiales y mantener actualizado el inventario.
+11. Historial de movimientos: Debería mantener un historial completo de todos los movimientos de los recursos materiales, permitiendo rastrear su ubicación y estado en cualquier momento.
+12. Reservas de equipo: Debe permitir a los usuarios reservar ciertos equipos o materiales con anticipación para su uso en clases o sesiones específicas.
+13. Compatibilidad con códigos de barras o RFID: Debe ser compatible con tecnologías de identificación como códigos de barras o RFID para facilitar el seguimiento y gestión de los recursos materiales.
+14. Control de acceso: Debería permitir establecer niveles de acceso para diferentes usuarios del sistema, asegurando que solo personal autorizado pueda realizar cambios en el inventario.
+15.Alertas de seguridad: Debería emitir alertas en caso de que se detecten problemas de seguridad con respecto al uso o estado de los recursos materiales.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Solo los miembros activos del gimnasio pueden acceder al proceso de solicitud de equipos o materiales.
@@ -2010,82 +2083,23 @@
 7. La adquisición de nuevos equipos o materiales debe seguir un proceso específico que incluya la obtención de cotizaciones, la aprobación por parte de la dirección y la recepción
 8. Todos los usuarios del gimnasio deben cumplir con las normas de seguridad establecidas al utilizar equipos o materiales
 9.  Los usuarios deben devolver los equipos o materiales asignados dentro del plazo especificado y en el mismo estado en que los recibieron
-10. Los equipos obsoletos o dañados deben ser retirados adecuadamente de acuerdo con las regulaciones ambientales y de seguridad, y pueden requerir la documentación adecuada para su eliminación.
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PROPIETARIO (OWNER)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Equipos
-2. Equipos_Existencias
-3. Mantenimiento
-4. Consumibles
-5. Recursos_Prestables
-6. Adeudos_Miembros
-6.-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adeudo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-7.-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bitacora      
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LECTOR (READER)
-1. Areas
-2. Productos
-3. Usuarios
-EDITOR  
-Ninguna</t>
-    </r>
+10. Los equipos obsoletos o dañados deben ser retirados adecuadamente de acuerdo con las regulaciones ambientales y de seguridad, y pueden requerir la documentación adecuada para su eliminación.                                              11. Restricción de acceso a equipos específicos: Solo los miembros con un nivel de suscripción premium pueden acceder a ciertos equipos especializados.
+12. Política de préstamo de materiales: Los materiales como las pesas deben ser devueltos en el mismo estado en que fueron prestados y dentro de un tiempo determinado para evitar cargos adicionales.
+13. Política de uso compartido de equipos: Los equipos de alta demanda, como las cintas de correr, tienen un límite de tiempo de uso por persona durante las horas pico para garantizar que todos los miembros tengan acceso.
+14. Requisitos de mantenimiento preventivo: Todo el equipo debe someterse a un mantenimiento regular según el programa establecido para garantizar su funcionamiento seguro y eficiente.
+15. Normas de seguridad en el uso de equipos: Se deben seguir las instrucciones de seguridad y las advertencias proporcionadas por el personal del gimnasio para minimizar el riesgo de lesiones.
+</t>
+  </si>
+  <si>
+    <t>1.  Garantizar la seguridad de los datos sensibles, como información financiera o detalles de inventario
+2. Manejar cargas de trabajo variables y asegurar tiempos de respuesta rápidos, incluso durante períodos de alta demanda
+3. .El sistema debe estar disponible y operativo durante la mayor parte del tiempo posible, con un tiempo de inactividad mínimo planificado para mantenimiento y actualizaciones.
+4.  Debe poder adaptarse y escalar fácilmente para manejar un aumento en el volumen de datos
+5.  El sistema debe ser fácil de usar e intuitivo para los usuarios, con una interfaz de usuario clara y bien diseñada, minimizando la necesidad de formación adicional.
+6. El sistema debe ser compatible con una variedad de dispositivos y plataformas
+7. El sistema debe ser capaz de integrarse con otros sistemas externos
+8. Cumplir con las regulaciones y normativas pertinentes, como leyes de protección de datos y estándares de seguridad de la información.
+9. Debe ser capaz de manejar de forma adecuada y recuperarse de posibles fallos del sistema, minimizando el impacto en la operación general del gimnasio.                      10. Rendimiento: El sistema debe ser rápido y eficiente, permitiendo un acceso ágil a la información del inventario incluso en momentos de alta demanda.</t>
   </si>
 </sst>
 </file>
@@ -2176,7 +2190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2201,6 +2215,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2971,9 +2988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3235,18 +3252,20 @@
         <v>50</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="15">
